--- a/regionseng/2/transport and communication/transport and storage.xlsx
+++ b/regionseng/2/transport and communication/transport and storage.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69A4C58-66AB-487D-BAF4-2CB8CA2A1406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="3510" windowWidth="21795" windowHeight="8010"/>
+    <workbookView xWindow="16365" yWindow="975" windowWidth="14265" windowHeight="9855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -192,9 +193,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -210,9 +211,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -224,10 +222,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -367,6 +362,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -402,6 +414,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -577,11 +606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="S4" sqref="S4:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -595,65 +624,65 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-    </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12">
         <v>2006</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>2007</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>2008</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>2009</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>2010</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>2011</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>2012</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <v>2013</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>2014</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>2015</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="13">
         <v>2016</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="13">
         <v>2017</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="13">
         <v>2018</v>
       </c>
       <c r="O3" s="1">
@@ -668,624 +697,660 @@
       <c r="R3" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="S3" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>180.15123</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>219.85248000000001</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>238.26159999999999</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>285.72345000000001</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="15">
         <v>389.46587</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="15">
         <v>419.75263000000001</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="16">
         <v>382.6</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="16">
         <v>443.7</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="17">
         <v>497.74790000000002</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="17">
         <v>655.09550000000002</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="18">
         <v>584.79999999999995</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="15">
         <v>713.16821000000004</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="15">
         <v>821.18493000000001</v>
       </c>
-      <c r="O4" s="30">
+      <c r="O4" s="28">
         <v>1173.5</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="28">
         <v>1290</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="28">
         <v>1291.5999999999999</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="28">
         <v>1353.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="S4" s="28">
+        <v>1604.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>127.49914</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>148.68270999999999</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>148.39915999999999</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>200.96163999999999</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <v>261.22771999999998</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>283.57218999999998</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="19">
         <v>280</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="19">
         <v>317.8</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="18">
         <v>335.7</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="18">
         <v>421.4</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="18">
         <v>395.2</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="15">
         <v>677.24027000000001</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="15">
         <v>495.35921999999999</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="28">
         <v>749.7</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="28">
         <v>782.6</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="28">
         <v>793.5</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="28">
         <v>931.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="S5" s="28">
+        <v>1058.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="20">
         <v>4293.25</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="20">
         <v>4747.57989</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="20">
         <v>4854.67778</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>5516.9395500000001</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>5204.0961600000001</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <v>5124.2503399999996</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="16">
         <v>5589</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="16">
         <v>5750</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="18">
         <v>5862</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="18">
         <v>6502</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="18">
         <v>6680</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="20">
         <v>6962.5260799999996</v>
       </c>
-      <c r="N6" s="22">
+      <c r="N6" s="20">
         <v>6967.4170999999997</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="28">
         <v>7926</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="28">
         <v>6439</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="28">
         <v>7473</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="28">
         <v>7827</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="S6" s="28">
+        <v>7982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="20">
         <v>4254.25</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <v>4712.1660499999998</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>4758.8999999999996</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>5493.6666599999999</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>5173.1602700000003</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="20">
         <v>5103.3406500000001</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="16">
         <v>5416</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="16">
         <v>5678</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <v>5824</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="18">
         <v>5873</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="18">
         <v>5806</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="20">
         <v>6504.7205800000002</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="20">
         <v>6602.9511700000003</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="28">
         <v>6903</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="28">
         <v>5429</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="28">
         <v>6738</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="28">
         <v>6520</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="S7" s="28">
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>490.99089099999998</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>536.176378</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>720.09013200000004</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>754.23040600000002</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <v>856.57795799999997</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>925.82912699999997</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="16">
         <v>1107.8</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="16">
         <v>1120.9000000000001</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="17">
         <v>1163.8</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="17">
         <v>1200.2</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="18">
         <v>1180.2</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="15">
         <v>1299.6500149999999</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="15">
         <v>1304.553355</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="28">
         <v>1410</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="28">
         <v>1648.9</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="28">
         <v>1501.4</v>
       </c>
-      <c r="R8" s="31">
+      <c r="R8" s="29">
         <v>1905</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="S8" s="29">
+        <v>1638.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>36.060769999999998</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>49.299500000000002</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>47.100760000000001</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>98.703329999999994</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <v>119.75937</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <v>98.805329999999998</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="16">
         <v>107.4</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="16">
         <v>111.2</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="17">
         <v>106.26689999999999</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="17">
         <v>149.04479999999998</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="18">
         <v>163.69999999999999</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="15">
         <v>167.40199000000001</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="15">
         <v>194.31282999999999</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="28">
         <v>299.10000000000002</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="28">
         <v>352.3</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="28">
         <v>346.5</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="28">
         <v>379.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="S9" s="28">
+        <v>432.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>30.079989999999999</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <v>36.603400000000001</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>41.188479999999998</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>49.848509999999997</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <v>53.767980000000001</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="15">
         <v>60.088590000000003</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="19">
         <v>75</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="16">
         <v>82.6</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="17">
         <v>83.833399999999997</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="17">
         <v>92.368100000000013</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="18">
         <v>88.1</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="15">
         <v>107.86062</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="15">
         <v>109.41327</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="28">
         <v>123.8</v>
       </c>
-      <c r="P10" s="30">
+      <c r="P10" s="28">
         <v>115.3</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="29">
         <v>129</v>
       </c>
-      <c r="R10" s="31">
+      <c r="R10" s="29">
         <v>157.30000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="S10" s="29">
+        <v>154.30000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>91.438370000000006</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <v>99.383189999999999</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <v>101.29846000000001</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>102.25833</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <v>141.46834999999999</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="15">
         <v>184.76692</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="16">
         <v>172.6</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="16">
         <v>206.6</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="17">
         <v>229.47579999999999</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="17">
         <v>272.40479999999997</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="17">
         <v>231.5</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="15">
         <v>509.83832000000001</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="15">
         <v>301.04633000000001</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="29">
         <v>450.6</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="28">
         <v>430.3</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="29">
         <v>447</v>
       </c>
-      <c r="R11" s="30">
+      <c r="R11" s="28">
         <v>551.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="S11" s="28">
+        <v>625.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>16.284949999999998</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <v>13.689959999999999</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>13.788069999999999</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>50.351030000000002</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <v>72.033180000000002</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="15">
         <v>92.478039999999993</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="19">
         <v>223</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="16">
         <v>48.9</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="17">
         <v>80.637799999999999</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="17">
         <v>109.7886</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="18">
         <v>107.9</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="15">
         <v>75.557940000000002</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="15">
         <v>79.816569999999999</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="28">
         <v>69.599999999999994</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="28">
         <v>103.5</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="28">
         <v>112.6</v>
       </c>
-      <c r="R12" s="30">
+      <c r="R12" s="28">
         <v>155.30000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="S12" s="28">
+        <v>153.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>117.76211000000001</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="15">
         <v>135.42133000000001</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>179.28335999999999</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="15">
         <v>246.55443</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="15">
         <v>244.46221</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="16">
         <v>213.2</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="19">
         <v>231</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="19">
         <v>278.93959999999998</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="19">
         <v>387.91290000000004</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="16">
         <v>321.89999999999998</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="15">
         <v>419.53330999999997</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="15">
         <v>517.11076000000003</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="28">
         <v>733.8</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="28">
         <v>846.6</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q13" s="28">
         <v>847.9</v>
       </c>
-      <c r="R13" s="30">
+      <c r="R13" s="28">
         <v>804.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="S13" s="29">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="23">
         <v>71.295249999999996</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="23">
         <v>89.744560000000007</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="23">
         <v>97.011719999999997</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="23">
         <v>135.10149999999999</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="23">
         <v>147.72085999999999</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="24">
         <v>111.4</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="25">
         <v>128</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="25">
         <v>175.22460000000001</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="26">
         <v>235.61620000000002</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="27">
         <v>187.8</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="23">
         <v>245.98872</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="23">
         <v>332.31301999999999</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="28">
         <v>445.6</v>
       </c>
-      <c r="P14" s="30">
+      <c r="P14" s="28">
         <v>509.7</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q14" s="28">
         <v>507.9</v>
       </c>
-      <c r="R14" s="30">
+      <c r="R14" s="28">
         <v>429.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S14" s="28">
+        <v>552.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
@@ -1307,58 +1372,58 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="11"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="11"/>
+      <c r="B28" s="10"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="11"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="11"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="11"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="11"/>
+      <c r="B32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
